--- a/xlsx/美属维尔京群岛_intext.xlsx
+++ b/xlsx/美属维尔京群岛_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
   <si>
     <t>美属维尔京群岛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B%E6%97%97%E5%B8%9C</t>
@@ -29,7 +29,7 @@
     <t>美属维尔京群岛旗帜</t>
   </si>
   <si>
-    <t>政策_政策_美國_美属维尔京群岛</t>
+    <t>政策_政策_美国_美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%98%BF%E9%A9%AC%E5%88%A9%E4%BA%9A</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6%E7%B8%BD%E7%9D%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美屬維京群島總督列表</t>
+    <t>美属维京群岛总督列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kenneth_Mapp</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E7%B1%8D</t>
   </si>
   <si>
-    <t>無黨籍</t>
+    <t>无党籍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lieutenant_Governor_of_the_United_States_Virgin_Islands</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>群島</t>
+    <t>群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -245,25 +245,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%B1%AC%E8%A5%BF%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>丹麥屬西印度群島</t>
+    <t>丹麦属西印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>維爾京群島</t>
+    <t>维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E7%A4%81</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%89%98%E9%A6%AC%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖托馬斯島</t>
+    <t>圣托马斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5-%E6%8C%AA%E5%A8%81</t>
   </si>
   <si>
-    <t>丹麥-挪威</t>
+    <t>丹麦-挪威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%A5%BF%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>丹麥西印度公司</t>
+    <t>丹麦西印度公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E8%89%87%E6%88%B0</t>
   </si>
   <si>
-    <t>潛艇戰</t>
+    <t>潜艇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E7%90%B4%E6%96%AF%E7%89%B9%E5%BE%B7</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家公園管理局</t>
+    <t>美国国家公园管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2%E6%9D%BF%E5%A1%8A</t>
   </si>
   <si>
-    <t>北美洲板塊</t>
+    <t>北美洲板块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%9D%BF%E5%9D%97</t>
@@ -413,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>熱帶氣旋</t>
+    <t>热带气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%B5%B7%E6%B4%8B%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶海洋性氣候</t>
+    <t>热带海洋性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E9%AB%98%E5%A3%93</t>
   </si>
   <si>
-    <t>副熱帶高壓</t>
+    <t>副热带高压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>颶風</t>
+    <t>飓风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E6%B0%B4</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E5%91%98</t>
@@ -479,9 +479,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>美国总统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9D%9E%E8%87%AA%E6%B2%BB%E9%A0%98%E5%9C%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國非自治領土列表</t>
+    <t>联合国非自治领土列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_list_of_Non-Self-Governing_Territories</t>
@@ -533,9 +530,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
   </si>
   <si>
-    <t>美国国会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B</t>
   </si>
   <si>
@@ -545,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E8%BC%AA</t>
   </si>
   <si>
-    <t>郵輪</t>
+    <t>邮轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%8D%E5%8A%A1%E4%B8%9A</t>
@@ -563,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>免費電話</t>
+    <t>免费电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
@@ -719,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -773,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -803,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -815,15 +809,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
   </si>
   <si>
@@ -833,19 +824,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -857,19 +848,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -887,31 +878,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -941,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -971,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -995,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -1037,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1073,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1115,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1127,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1139,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1193,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1211,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1265,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1283,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1295,15 +1286,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -1319,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1331,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1343,25 +1331,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1391,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1409,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1421,22 +1409,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
   </si>
   <si>
     <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I240"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2013,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -2622,7 +2601,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -4040,7 +4019,7 @@
         <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -4066,10 +4045,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4095,10 +4074,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4124,10 +4103,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4153,10 +4132,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4182,10 +4161,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4211,10 +4190,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4240,10 +4219,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4269,10 +4248,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4298,10 +4277,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4327,10 +4306,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4356,10 +4335,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4385,10 +4364,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4414,10 +4393,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4443,10 +4422,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4472,10 +4451,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4501,10 +4480,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4530,10 +4509,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4559,10 +4538,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -4588,10 +4567,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>8</v>
@@ -4617,10 +4596,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4646,10 +4625,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4675,10 +4654,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4704,10 +4683,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4733,10 +4712,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4762,10 +4741,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4791,10 +4770,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4820,10 +4799,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4849,10 +4828,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4878,10 +4857,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4907,10 +4886,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4936,10 +4915,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4965,10 +4944,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4994,10 +4973,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5023,10 +5002,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5052,10 +5031,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5081,10 +5060,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5110,10 +5089,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F115" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5139,10 +5118,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5168,10 +5147,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5197,10 +5176,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5226,10 +5205,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5255,10 +5234,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5284,10 +5263,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5313,10 +5292,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5342,10 +5321,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5371,10 +5350,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5400,10 +5379,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5429,10 +5408,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5458,10 +5437,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5487,10 +5466,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5516,10 +5495,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5545,10 +5524,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5574,10 +5553,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5603,10 +5582,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5632,10 +5611,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5661,10 +5640,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5690,10 +5669,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5719,10 +5698,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="G136" t="n">
         <v>5</v>
@@ -5748,10 +5727,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5777,10 +5756,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5806,10 +5785,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5835,10 +5814,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5893,10 +5872,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5922,10 +5901,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5951,10 +5930,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5980,10 +5959,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6009,10 +5988,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6038,10 +6017,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6067,10 +6046,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6096,10 +6075,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6125,10 +6104,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6154,10 +6133,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6183,10 +6162,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6212,10 +6191,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6241,10 +6220,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6270,10 +6249,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6299,10 +6278,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6328,10 +6307,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6357,10 +6336,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6386,10 +6365,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6415,10 +6394,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6444,10 +6423,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6473,10 +6452,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6502,10 +6481,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6531,10 +6510,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6560,10 +6539,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6589,10 +6568,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6618,10 +6597,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6647,10 +6626,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6676,10 +6655,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6705,10 +6684,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6734,10 +6713,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6763,10 +6742,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6792,10 +6771,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6821,10 +6800,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6850,10 +6829,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6879,10 +6858,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6908,10 +6887,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6937,10 +6916,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6966,10 +6945,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6995,10 +6974,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7024,10 +7003,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7053,10 +7032,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7082,10 +7061,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7111,10 +7090,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7140,10 +7119,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7169,10 +7148,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7198,10 +7177,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7227,10 +7206,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7256,10 +7235,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7285,10 +7264,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7314,10 +7293,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7343,10 +7322,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7372,10 +7351,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7401,10 +7380,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7430,10 +7409,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7459,10 +7438,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7488,10 +7467,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7517,10 +7496,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7546,10 +7525,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7575,10 +7554,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7604,10 +7583,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7633,10 +7612,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7662,10 +7641,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7691,10 +7670,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7720,10 +7699,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7749,10 +7728,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7778,10 +7757,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7807,10 +7786,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7836,10 +7815,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7865,10 +7844,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -7894,10 +7873,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7923,10 +7902,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7952,10 +7931,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7981,10 +7960,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8010,10 +7989,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8039,10 +8018,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8068,10 +8047,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>172</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8097,10 +8076,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8126,10 +8105,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8155,10 +8134,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8184,10 +8163,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8213,10 +8192,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8242,10 +8221,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8271,10 +8250,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8300,10 +8279,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8329,10 +8308,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8358,10 +8337,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8387,10 +8366,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8416,10 +8395,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8445,10 +8424,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8474,10 +8453,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8503,10 +8482,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -8532,10 +8511,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8561,10 +8540,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8590,10 +8569,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8619,10 +8598,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8648,10 +8627,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8677,10 +8656,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8689,64 +8668,6 @@
         <v>4</v>
       </c>
       <c r="I238" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="s">
-        <v>0</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1</v>
-      </c>
-      <c r="D239" t="n">
-        <v>238</v>
-      </c>
-      <c r="E239" t="s">
-        <v>471</v>
-      </c>
-      <c r="F239" t="s">
-        <v>472</v>
-      </c>
-      <c r="G239" t="n">
-        <v>4</v>
-      </c>
-      <c r="H239" t="s">
-        <v>4</v>
-      </c>
-      <c r="I239" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>0</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1</v>
-      </c>
-      <c r="D240" t="n">
-        <v>239</v>
-      </c>
-      <c r="E240" t="s">
-        <v>471</v>
-      </c>
-      <c r="F240" t="s">
-        <v>473</v>
-      </c>
-      <c r="G240" t="n">
-        <v>1</v>
-      </c>
-      <c r="H240" t="s">
-        <v>4</v>
-      </c>
-      <c r="I240" t="n">
         <v>3</v>
       </c>
     </row>
